--- a/data/trans_orig/IP29_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP29_R-Estudios-trans_orig.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F51F00D6-81B4-47B9-AD60-CD0116A71051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{741831CB-F9D4-43CC-93C4-18460FF0592C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA15DD3A-82BA-4945-8F93-682B5365A1B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{092677B4-9B75-49DE-A8AD-C321409BF9A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
-    <sheet name="2023" sheetId="5" r:id="rId4"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="306">
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2007 (Tasa respuesta: 98,43%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="241">
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2007 (Tasa respuesta: 96,15%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -101,862 +100,667 @@
     <t>Primarios</t>
   </si>
   <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 97,57%)</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 99,05%)</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>27,34%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>72,66%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2015 (Tasa respuesta: 98,78%)</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2023 (Tasa respuesta: 46,88%)</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195934B8-8847-4194-969B-84DFA6F7CFF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C2D07-EE72-44B1-BDD8-72FA29F1BCC3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,10 +1490,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="7">
-        <v>56841</v>
+        <v>55507</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -1701,10 +1505,10 @@
         <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I8" s="7">
-        <v>59842</v>
+        <v>58475</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
@@ -1716,10 +1520,10 @@
         <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N8" s="7">
-        <v>116683</v>
+        <v>113982</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
@@ -1737,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D9" s="7">
-        <v>84821</v>
+        <v>83487</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -1752,10 +1556,10 @@
         <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I9" s="7">
-        <v>90122</v>
+        <v>88755</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -1767,10 +1571,10 @@
         <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N9" s="7">
-        <v>174943</v>
+        <v>172242</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -1793,7 +1597,7 @@
         <v>187</v>
       </c>
       <c r="D10" s="7">
-        <v>123506</v>
+        <v>123507</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>39</v>
@@ -1841,10 +1645,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D11" s="7">
-        <v>345928</v>
+        <v>336350</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>48</v>
@@ -1856,10 +1660,10 @@
         <v>50</v>
       </c>
       <c r="H11" s="7">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="I11" s="7">
-        <v>276064</v>
+        <v>265031</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>51</v>
@@ -1871,10 +1675,10 @@
         <v>53</v>
       </c>
       <c r="M11" s="7">
-        <v>938</v>
+        <v>908</v>
       </c>
       <c r="N11" s="7">
-        <v>621991</v>
+        <v>601381</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>54</v>
@@ -1892,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="D12" s="7">
-        <v>469434</v>
+        <v>459857</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -1907,10 +1711,10 @@
         <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="I12" s="7">
-        <v>409093</v>
+        <v>398060</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -1922,10 +1726,10 @@
         <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1326</v>
+        <v>1296</v>
       </c>
       <c r="N12" s="7">
-        <v>878527</v>
+        <v>857917</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -1963,7 +1767,7 @@
         <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>41791</v>
+        <v>41790</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>61</v>
@@ -1978,7 +1782,7 @@
         <v>131</v>
       </c>
       <c r="N13" s="7">
-        <v>89139</v>
+        <v>89138</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>64</v>
@@ -1996,10 +1800,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D14" s="7">
-        <v>108808</v>
+        <v>104019</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>67</v>
@@ -2011,10 +1815,10 @@
         <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I14" s="7">
-        <v>128753</v>
+        <v>124160</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>70</v>
@@ -2026,10 +1830,10 @@
         <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="N14" s="7">
-        <v>237561</v>
+        <v>228179</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>73</v>
@@ -2047,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>156156</v>
+        <v>151367</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -2062,10 +1866,10 @@
         <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>170544</v>
+        <v>165950</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -2077,10 +1881,10 @@
         <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>326700</v>
+        <v>317317</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -2103,7 +1907,7 @@
         <v>300</v>
       </c>
       <c r="D16" s="7">
-        <v>198835</v>
+        <v>198834</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>76</v>
@@ -2151,10 +1955,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="D17" s="7">
-        <v>512303</v>
+        <v>496603</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -2166,10 +1970,10 @@
         <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="I17" s="7">
-        <v>464658</v>
+        <v>447665</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>88</v>
@@ -2181,10 +1985,10 @@
         <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>1465</v>
+        <v>1417</v>
       </c>
       <c r="N17" s="7">
-        <v>976962</v>
+        <v>944268</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>91</v>
@@ -2202,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1069</v>
+        <v>1046</v>
       </c>
       <c r="D18" s="7">
-        <v>711138</v>
+        <v>695437</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>18</v>
@@ -2217,10 +2021,10 @@
         <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>669758</v>
+        <v>652765</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>
@@ -2232,10 +2036,10 @@
         <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>2071</v>
+        <v>2023</v>
       </c>
       <c r="N18" s="7">
-        <v>1380896</v>
+        <v>1348202</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -2269,7 +2073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F6A3A6-B683-46D0-9391-8008E73E26AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6DD31-A936-4FBD-AE47-106BC3D8D469}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2587,10 +2391,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
-        <v>60785</v>
+        <v>59120</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>105</v>
@@ -2602,10 +2406,10 @@
         <v>107</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7">
-        <v>68700</v>
+        <v>67998</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>108</v>
@@ -2617,10 +2421,10 @@
         <v>110</v>
       </c>
       <c r="M8" s="7">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N8" s="7">
-        <v>129485</v>
+        <v>127118</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>111</v>
@@ -2638,10 +2442,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="7">
-        <v>83651</v>
+        <v>81986</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -2653,10 +2457,10 @@
         <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I9" s="7">
-        <v>91001</v>
+        <v>90299</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2668,10 +2472,10 @@
         <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N9" s="7">
-        <v>174652</v>
+        <v>172285</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -2742,10 +2546,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D11" s="7">
-        <v>374169</v>
+        <v>367837</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>123</v>
@@ -2757,10 +2561,10 @@
         <v>125</v>
       </c>
       <c r="H11" s="7">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="I11" s="7">
-        <v>331771</v>
+        <v>324555</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>126</v>
@@ -2772,10 +2576,10 @@
         <v>128</v>
       </c>
       <c r="M11" s="7">
-        <v>1024</v>
+        <v>1005</v>
       </c>
       <c r="N11" s="7">
-        <v>705938</v>
+        <v>692391</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>129</v>
@@ -2793,10 +2597,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D12" s="7">
-        <v>489622</v>
+        <v>483290</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -2808,10 +2612,10 @@
         <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="I12" s="7">
-        <v>450171</v>
+        <v>442955</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -2823,10 +2627,10 @@
         <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="N12" s="7">
-        <v>939792</v>
+        <v>926245</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -2864,7 +2668,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>47210</v>
+        <v>47209</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>135</v>
@@ -2897,10 +2701,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>133887</v>
+        <v>131949</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>141</v>
@@ -2912,10 +2716,10 @@
         <v>143</v>
       </c>
       <c r="H14" s="7">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I14" s="7">
-        <v>118994</v>
+        <v>114738</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>144</v>
@@ -2927,10 +2731,10 @@
         <v>146</v>
       </c>
       <c r="M14" s="7">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="N14" s="7">
-        <v>252881</v>
+        <v>246688</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>147</v>
@@ -2948,10 +2752,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D15" s="7">
-        <v>169410</v>
+        <v>167472</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -2963,10 +2767,10 @@
         <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>166204</v>
+        <v>161947</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -2978,10 +2782,10 @@
         <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="N15" s="7">
-        <v>335613</v>
+        <v>329420</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -3052,10 +2856,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D17" s="7">
-        <v>568839</v>
+        <v>558905</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>159</v>
@@ -3067,10 +2871,10 @@
         <v>161</v>
       </c>
       <c r="H17" s="7">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="I17" s="7">
-        <v>519465</v>
+        <v>507290</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>162</v>
@@ -3082,10 +2886,10 @@
         <v>164</v>
       </c>
       <c r="M17" s="7">
-        <v>1570</v>
+        <v>1539</v>
       </c>
       <c r="N17" s="7">
-        <v>1088305</v>
+        <v>1066197</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>165</v>
@@ -3103,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="D18" s="7">
-        <v>743323</v>
+        <v>733389</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>18</v>
@@ -3118,10 +2922,10 @@
         <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>707376</v>
+        <v>695201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>
@@ -3133,10 +2937,10 @@
         <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>2079</v>
+        <v>2048</v>
       </c>
       <c r="N18" s="7">
-        <v>1450699</v>
+        <v>1428591</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -3170,7 +2974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A28C2D-5E54-4B68-97B1-EC06BDC0C088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F188FC7E-A059-4668-A4B4-68E88273B51C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3491,10 +3295,10 @@
         <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="7">
-        <v>43084</v>
+        <v>42514</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>181</v>
@@ -3506,10 +3310,10 @@
         <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N8" s="7">
-        <v>95152</v>
+        <v>94581</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>184</v>
@@ -3542,10 +3346,10 @@
         <v>18</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
-        <v>58672</v>
+        <v>58102</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -3557,10 +3361,10 @@
         <v>18</v>
       </c>
       <c r="M9" s="7">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N9" s="7">
-        <v>125766</v>
+        <v>125195</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -3586,28 +3390,28 @@
         <v>145935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>132165</v>
+        <v>132164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>402</v>
@@ -3616,13 +3420,13 @@
         <v>278100</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3435,49 @@
         <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D11" s="7">
-        <v>335349</v>
+        <v>333130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="I11" s="7">
-        <v>334697</v>
+        <v>329503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="N11" s="7">
-        <v>670046</v>
+        <v>662632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>481284</v>
+        <v>479065</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -3697,10 +3501,10 @@
         <v>18</v>
       </c>
       <c r="H12" s="7">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="I12" s="7">
-        <v>466862</v>
+        <v>461667</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>18</v>
@@ -3712,10 +3516,10 @@
         <v>18</v>
       </c>
       <c r="M12" s="7">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="N12" s="7">
-        <v>948146</v>
+        <v>940732</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -3741,13 +3545,13 @@
         <v>59793</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -3756,13 +3560,13 @@
         <v>52029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>164</v>
@@ -3771,13 +3575,13 @@
         <v>111821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,49 +3590,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D14" s="7">
-        <v>126345</v>
+        <v>121194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I14" s="7">
-        <v>119360</v>
+        <v>114541</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="N14" s="7">
-        <v>245705</v>
+        <v>235736</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,10 +3641,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D15" s="7">
-        <v>186138</v>
+        <v>180987</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -3852,10 +3656,10 @@
         <v>18</v>
       </c>
       <c r="H15" s="7">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I15" s="7">
-        <v>171389</v>
+        <v>166570</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>18</v>
@@ -3867,10 +3671,10 @@
         <v>18</v>
       </c>
       <c r="M15" s="7">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="N15" s="7">
-        <v>357526</v>
+        <v>347557</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -3896,13 +3700,13 @@
         <v>220754</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>301</v>
@@ -3911,13 +3715,13 @@
         <v>199781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>609</v>
@@ -3926,13 +3730,13 @@
         <v>420535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,49 +3745,49 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="D17" s="7">
-        <v>513762</v>
+        <v>506391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="I17" s="7">
-        <v>497142</v>
+        <v>486558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
-        <v>1491</v>
+        <v>1464</v>
       </c>
       <c r="N17" s="7">
-        <v>1010903</v>
+        <v>992949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,10 +3796,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="D18" s="7">
-        <v>734516</v>
+        <v>727145</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>18</v>
@@ -4007,10 +3811,10 @@
         <v>18</v>
       </c>
       <c r="H18" s="7">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="I18" s="7">
-        <v>696923</v>
+        <v>686339</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>18</v>
@@ -4022,899 +3826,10 @@
         <v>18</v>
       </c>
       <c r="M18" s="7">
-        <v>2100</v>
+        <v>2073</v>
       </c>
       <c r="N18" s="7">
-        <v>1431438</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CB41E-2790-439D-9735-DFE05116C21D}">
-  <dimension ref="A1:Q19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7">
-        <v>14369</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="7">
-        <v>19</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14714</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M7" s="7">
-        <v>40</v>
-      </c>
-      <c r="N7" s="7">
-        <v>29083</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7470</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>13360</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M8" s="7">
-        <v>28</v>
-      </c>
-      <c r="N8" s="7">
-        <v>20830</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>33</v>
-      </c>
-      <c r="D9" s="7">
-        <v>21839</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="7">
-        <v>35</v>
-      </c>
-      <c r="I9" s="7">
-        <v>28074</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="7">
-        <v>68</v>
-      </c>
-      <c r="N9" s="7">
-        <v>49913</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>187</v>
-      </c>
-      <c r="D10" s="7">
-        <v>138604</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="7">
-        <v>166</v>
-      </c>
-      <c r="I10" s="7">
-        <v>110632</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M10" s="7">
-        <v>353</v>
-      </c>
-      <c r="N10" s="7">
-        <v>249236</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
-        <v>113</v>
-      </c>
-      <c r="D11" s="7">
-        <v>84236</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H11" s="7">
-        <v>118</v>
-      </c>
-      <c r="I11" s="7">
-        <v>82127</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M11" s="7">
-        <v>231</v>
-      </c>
-      <c r="N11" s="7">
-        <v>166363</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>300</v>
-      </c>
-      <c r="D12" s="7">
-        <v>222840</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="7">
-        <v>284</v>
-      </c>
-      <c r="I12" s="7">
-        <v>192759</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="7">
-        <v>584</v>
-      </c>
-      <c r="N12" s="7">
-        <v>415599</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>86</v>
-      </c>
-      <c r="D13" s="7">
-        <v>64898</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H13" s="7">
-        <v>84</v>
-      </c>
-      <c r="I13" s="7">
-        <v>55259</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M13" s="7">
-        <v>170</v>
-      </c>
-      <c r="N13" s="7">
-        <v>120157</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7">
-        <v>32351</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="7">
-        <v>36</v>
-      </c>
-      <c r="I14" s="7">
-        <v>23966</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M14" s="7">
-        <v>78</v>
-      </c>
-      <c r="N14" s="7">
-        <v>56317</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>128</v>
-      </c>
-      <c r="D15" s="7">
-        <v>97249</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="7">
-        <v>120</v>
-      </c>
-      <c r="I15" s="7">
-        <v>79225</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="7">
-        <v>248</v>
-      </c>
-      <c r="N15" s="7">
-        <v>176474</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>294</v>
-      </c>
-      <c r="D16" s="7">
-        <v>217872</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H16" s="7">
-        <v>269</v>
-      </c>
-      <c r="I16" s="7">
-        <v>180605</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="M16" s="7">
-        <v>563</v>
-      </c>
-      <c r="N16" s="7">
-        <v>398476</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>167</v>
-      </c>
-      <c r="D17" s="7">
-        <v>124056</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H17" s="7">
-        <v>170</v>
-      </c>
-      <c r="I17" s="7">
-        <v>119453</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M17" s="7">
-        <v>337</v>
-      </c>
-      <c r="N17" s="7">
-        <v>243510</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>461</v>
-      </c>
-      <c r="D18" s="7">
-        <v>341928</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>439</v>
-      </c>
-      <c r="I18" s="7">
-        <v>300058</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>900</v>
-      </c>
-      <c r="N18" s="7">
-        <v>641986</v>
+        <v>1413484</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>

--- a/data/trans_orig/IP29_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP29_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{741831CB-F9D4-43CC-93C4-18460FF0592C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A24C74-0988-4DD9-B551-22DA4C1F9706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{092677B4-9B75-49DE-A8AD-C321409BF9A8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9F7A21CF-3B20-46C7-9C55-9F17CE855026}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="234">
   <si>
     <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2007 (Tasa respuesta: 96,15%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,259 +67,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>70,1%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>68,72%</t>
   </si>
   <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>71,91%</t>
   </si>
   <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -328,439 +307,439 @@
     <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 97,57%)</t>
   </si>
   <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>25,25%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>74,75%</t>
   </si>
   <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2016 (Tasa respuesta: 97,51%)</t>
   </si>
   <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>29,56%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>32,17%</t>
   </si>
   <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>67,83%</t>
   </si>
   <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546C2D07-EE72-44B1-BDD8-72FA29F1BCC3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60354B05-73C8-40D2-964C-2F0D9B7FAFB1}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1290,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>30280</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1305,81 +1284,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I4" s="7">
+        <v>27980</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>58260</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>58475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="I5" s="7">
+        <v>55507</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>113982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1388,151 +1371,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>88755</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83487</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>172242</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D7" s="7">
-        <v>27980</v>
+        <v>133029</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="I7" s="7">
-        <v>30280</v>
+        <v>123507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>87</v>
+        <v>388</v>
       </c>
       <c r="N7" s="7">
-        <v>58260</v>
+        <v>256536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="D8" s="7">
-        <v>55507</v>
+        <v>265031</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>88</v>
+        <v>507</v>
       </c>
       <c r="I8" s="7">
-        <v>58475</v>
+        <v>336350</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>171</v>
+        <v>908</v>
       </c>
       <c r="N8" s="7">
-        <v>113982</v>
+        <v>601381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,153 +1526,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>125</v>
+        <v>602</v>
       </c>
       <c r="D9" s="7">
-        <v>83487</v>
+        <v>398060</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>694</v>
       </c>
       <c r="I9" s="7">
-        <v>88755</v>
+        <v>459857</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>258</v>
+        <v>1296</v>
       </c>
       <c r="N9" s="7">
-        <v>172242</v>
+        <v>857917</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>123507</v>
+        <v>41790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>133029</v>
+        <v>47348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>388</v>
+        <v>131</v>
       </c>
       <c r="N10" s="7">
-        <v>256536</v>
+        <v>89138</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>507</v>
+        <v>182</v>
       </c>
       <c r="D11" s="7">
-        <v>336350</v>
+        <v>124160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>401</v>
+        <v>155</v>
       </c>
       <c r="I11" s="7">
-        <v>265031</v>
+        <v>104019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>908</v>
+        <v>337</v>
       </c>
       <c r="N11" s="7">
-        <v>601381</v>
+        <v>228179</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,153 +1681,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>694</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>459857</v>
+        <v>165950</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>602</v>
+        <v>226</v>
       </c>
       <c r="I12" s="7">
-        <v>398060</v>
+        <v>151367</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1296</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>857917</v>
+        <v>317317</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>306</v>
+      </c>
+      <c r="D13" s="7">
+        <v>205100</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="7">
-        <v>47348</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I13" s="7">
-        <v>41790</v>
+        <v>198835</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>131</v>
+        <v>606</v>
       </c>
       <c r="N13" s="7">
-        <v>89138</v>
+        <v>403934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>155</v>
+        <v>671</v>
       </c>
       <c r="D14" s="7">
-        <v>104019</v>
+        <v>447665</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>182</v>
+        <v>745</v>
       </c>
       <c r="I14" s="7">
-        <v>124160</v>
+        <v>495876</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>337</v>
+        <v>1416</v>
       </c>
       <c r="N14" s="7">
-        <v>228179</v>
+        <v>943541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,216 +1836,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>226</v>
+        <v>977</v>
       </c>
       <c r="D15" s="7">
-        <v>151367</v>
+        <v>652765</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>1045</v>
       </c>
       <c r="I15" s="7">
-        <v>165950</v>
+        <v>694711</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>2022</v>
       </c>
       <c r="N15" s="7">
-        <v>317317</v>
+        <v>1347475</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>300</v>
-      </c>
-      <c r="D16" s="7">
-        <v>198834</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>306</v>
-      </c>
-      <c r="I16" s="7">
-        <v>205100</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>606</v>
-      </c>
-      <c r="N16" s="7">
-        <v>403934</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>746</v>
-      </c>
-      <c r="D17" s="7">
-        <v>496603</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>671</v>
-      </c>
-      <c r="I17" s="7">
-        <v>447665</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1417</v>
-      </c>
-      <c r="N17" s="7">
-        <v>944268</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1046</v>
-      </c>
-      <c r="D18" s="7">
-        <v>695437</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>977</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652765</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2023</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1348202</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2073,8 +1902,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6DD31-A936-4FBD-AE47-106BC3D8D469}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AA07B6-CF57-46EA-82B9-A75DC989F24B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2090,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2191,96 +2020,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>22301</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22866</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>45167</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>67998</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I5" s="7">
+        <v>59120</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>127118</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,151 +2122,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>90299</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="I6" s="7">
+        <v>81986</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>172285</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>22866</v>
+        <v>118400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>22301</v>
+        <v>115453</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="N7" s="7">
-        <v>45167</v>
+        <v>233854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>84</v>
+        <v>470</v>
       </c>
       <c r="D8" s="7">
-        <v>59120</v>
+        <v>324555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>535</v>
       </c>
       <c r="I8" s="7">
-        <v>67998</v>
+        <v>367837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>183</v>
+        <v>1005</v>
       </c>
       <c r="N8" s="7">
-        <v>127118</v>
+        <v>692391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,153 +2277,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>115</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>81986</v>
+        <v>442955</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>131</v>
+        <v>694</v>
       </c>
       <c r="I9" s="7">
-        <v>90299</v>
+        <v>483290</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>246</v>
+        <v>1335</v>
       </c>
       <c r="N9" s="7">
-        <v>172285</v>
+        <v>926245</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>115453</v>
+        <v>47209</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
+        <v>49</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35523</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="7">
         <v>115</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="7">
-        <v>171</v>
-      </c>
-      <c r="I10" s="7">
-        <v>118400</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="7">
-        <v>330</v>
-      </c>
       <c r="N10" s="7">
-        <v>233854</v>
+        <v>82732</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7">
-        <v>367837</v>
+        <v>114738</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>470</v>
+        <v>188</v>
       </c>
       <c r="I11" s="7">
-        <v>324555</v>
+        <v>131949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>1005</v>
+        <v>351</v>
       </c>
       <c r="N11" s="7">
-        <v>692391</v>
+        <v>246688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,153 +2432,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>694</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>483290</v>
+        <v>161947</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>237</v>
       </c>
       <c r="I12" s="7">
-        <v>442955</v>
+        <v>167472</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1335</v>
+        <v>466</v>
       </c>
       <c r="N12" s="7">
-        <v>926245</v>
+        <v>329420</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="D13" s="7">
-        <v>35523</v>
+        <v>187911</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="I13" s="7">
-        <v>47209</v>
+        <v>173843</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>115</v>
+        <v>508</v>
       </c>
       <c r="N13" s="7">
-        <v>82732</v>
+        <v>361753</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>188</v>
+        <v>732</v>
       </c>
       <c r="D14" s="7">
-        <v>131949</v>
+        <v>507290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>163</v>
+        <v>807</v>
       </c>
       <c r="I14" s="7">
-        <v>114738</v>
+        <v>558905</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>351</v>
+        <v>1539</v>
       </c>
       <c r="N14" s="7">
-        <v>246688</v>
+        <v>1066196</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,216 +2587,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>237</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="7">
-        <v>167472</v>
+        <v>695201</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>1046</v>
       </c>
       <c r="I15" s="7">
-        <v>161947</v>
+        <v>732748</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>466</v>
+        <v>2047</v>
       </c>
       <c r="N15" s="7">
-        <v>329420</v>
+        <v>1427949</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>240</v>
-      </c>
-      <c r="D16" s="7">
-        <v>174484</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>269</v>
-      </c>
-      <c r="I16" s="7">
-        <v>187911</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>509</v>
-      </c>
-      <c r="N16" s="7">
-        <v>362394</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>807</v>
-      </c>
-      <c r="D17" s="7">
-        <v>558905</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>732</v>
-      </c>
-      <c r="I17" s="7">
-        <v>507290</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1539</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1066197</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1047</v>
-      </c>
-      <c r="D18" s="7">
-        <v>733389</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>695201</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2048</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1428591</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2974,8 +2653,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F188FC7E-A059-4668-A4B4-68E88273B51C}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17475243-DB2C-49FB-A1B9-6ACF1CA430F1}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2991,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3092,88 +2771,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>15588</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15026</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="N4" s="7">
+        <v>30614</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42514</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I5" s="7">
+        <v>52067</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="N5" s="7">
+        <v>94581</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,147 +2873,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="D6" s="7">
+        <v>58102</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67093</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="N6" s="7">
+        <v>125195</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="D7" s="7">
-        <v>15026</v>
+        <v>132164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="I7" s="7">
-        <v>15588</v>
+        <v>145935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="N7" s="7">
-        <v>30614</v>
+        <v>278100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>499</v>
       </c>
       <c r="D8" s="7">
-        <v>52067</v>
+        <v>329503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
-        <v>64</v>
+        <v>478</v>
       </c>
       <c r="I8" s="7">
-        <v>42514</v>
+        <v>333130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
-        <v>141</v>
+        <v>977</v>
       </c>
       <c r="N8" s="7">
-        <v>94581</v>
+        <v>662632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,153 +3028,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>698</v>
       </c>
       <c r="D9" s="7">
-        <v>67093</v>
+        <v>461667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>681</v>
       </c>
       <c r="I9" s="7">
-        <v>58102</v>
+        <v>479065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>184</v>
+        <v>1379</v>
       </c>
       <c r="N9" s="7">
-        <v>125195</v>
+        <v>940732</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7">
+        <v>52029</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
+        <v>85</v>
+      </c>
+      <c r="I10" s="7">
+        <v>59793</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D10" s="7">
-        <v>145935</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="7">
-        <v>199</v>
-      </c>
-      <c r="I10" s="7">
-        <v>132164</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="M10" s="7">
-        <v>402</v>
+        <v>164</v>
       </c>
       <c r="N10" s="7">
-        <v>278100</v>
+        <v>111821</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>478</v>
+        <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>333130</v>
+        <v>114541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
-        <v>499</v>
+        <v>176</v>
       </c>
       <c r="I11" s="7">
-        <v>329503</v>
+        <v>121194</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
-        <v>977</v>
+        <v>346</v>
       </c>
       <c r="N11" s="7">
-        <v>662632</v>
+        <v>235736</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,153 +3183,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>681</v>
+        <v>249</v>
       </c>
       <c r="D12" s="7">
-        <v>479065</v>
+        <v>166570</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>698</v>
+        <v>261</v>
       </c>
       <c r="I12" s="7">
-        <v>461667</v>
+        <v>180987</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1379</v>
+        <v>510</v>
       </c>
       <c r="N12" s="7">
-        <v>940732</v>
+        <v>347557</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="D13" s="7">
-        <v>59793</v>
+        <v>199781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="I13" s="7">
-        <v>52029</v>
+        <v>220754</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
-        <v>164</v>
+        <v>609</v>
       </c>
       <c r="N13" s="7">
-        <v>111821</v>
+        <v>420535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>733</v>
       </c>
       <c r="D14" s="7">
-        <v>121194</v>
+        <v>486558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
-        <v>170</v>
+        <v>731</v>
       </c>
       <c r="I14" s="7">
-        <v>114541</v>
+        <v>506391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>346</v>
+        <v>1464</v>
       </c>
       <c r="N14" s="7">
-        <v>235736</v>
+        <v>992949</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,216 +3338,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>261</v>
+        <v>1034</v>
       </c>
       <c r="D15" s="7">
-        <v>180987</v>
+        <v>686339</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>249</v>
+        <v>1039</v>
       </c>
       <c r="I15" s="7">
-        <v>166570</v>
+        <v>727145</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>510</v>
+        <v>2073</v>
       </c>
       <c r="N15" s="7">
-        <v>347557</v>
+        <v>1413484</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>308</v>
-      </c>
-      <c r="D16" s="7">
-        <v>220754</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="7">
-        <v>301</v>
-      </c>
-      <c r="I16" s="7">
-        <v>199781</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M16" s="7">
-        <v>609</v>
-      </c>
-      <c r="N16" s="7">
-        <v>420535</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>731</v>
-      </c>
-      <c r="D17" s="7">
-        <v>506391</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="7">
-        <v>733</v>
-      </c>
-      <c r="I17" s="7">
-        <v>486558</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1464</v>
-      </c>
-      <c r="N17" s="7">
-        <v>992949</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1039</v>
-      </c>
-      <c r="D18" s="7">
-        <v>727145</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I18" s="7">
-        <v>686339</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1413484</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
